--- a/tests/data/desired/result-col-exclude-report.xlsx
+++ b/tests/data/desired/result-col-exclude-report.xlsx
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -75,10 +75,37 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,7 +113,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -95,7 +124,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -104,18 +138,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,11 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -181,13 +208,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="s" s="3">
         <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>39.0</v>
       </c>
-      <c r="C2" t="n" s="3">
+      <c r="C2" t="n" s="4">
         <v>0.03903903903903904</v>
       </c>
       <c r="F2" t="n">
@@ -195,13 +222,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="3">
         <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>39.0</v>
       </c>
-      <c r="C3" t="n" s="3">
+      <c r="C3" t="n" s="4">
         <v>0.03903903903903904</v>
       </c>
       <c r="F3" t="n">
@@ -209,16 +236,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" t="s" s="3">
         <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>328.0</v>
       </c>
-      <c r="C4" t="n" s="3">
+      <c r="C4" t="n" s="4">
         <v>0.3283283283283283</v>
       </c>
-      <c r="D4" t="n" s="3">
+      <c r="D4" t="n" s="4">
         <v>0.04301352442817618</v>
       </c>
       <c r="E4" t="n">
@@ -232,16 +259,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" t="s" s="3">
         <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>133.0</v>
       </c>
-      <c r="C5" t="n" s="3">
+      <c r="C5" t="n" s="4">
         <v>0.13313313313313313</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" t="n" s="4">
         <v>0.03979584798951652</v>
       </c>
       <c r="E5" t="n">
@@ -255,16 +282,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" t="s" s="3">
         <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>41.0</v>
       </c>
-      <c r="C6" t="n" s="3">
+      <c r="C6" t="n" s="4">
         <v>0.04104104104104104</v>
       </c>
-      <c r="D6" t="n" s="3">
+      <c r="D6" t="n" s="4">
         <v>0.0382370211737073</v>
       </c>
       <c r="E6" t="n">
@@ -301,36 +328,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="s" s="5">
         <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
-      <c r="C2" t="n" s="3">
+      <c r="C2" t="n" s="6">
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
@@ -338,13 +365,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="5">
         <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
-      <c r="C3" t="n" s="3">
+      <c r="C3" t="n" s="6">
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
@@ -352,16 +379,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" t="s" s="5">
         <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>289.0</v>
       </c>
-      <c r="C4" t="n" s="3">
+      <c r="C4" t="n" s="6">
         <v>0.30104166666666665</v>
       </c>
-      <c r="D4" t="n" s="3">
+      <c r="D4" t="n" s="6">
         <v>0.005162834735695018</v>
       </c>
       <c r="E4" t="n">
@@ -375,16 +402,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" t="s" s="5">
         <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>94.0</v>
       </c>
-      <c r="C5" t="n" s="3">
+      <c r="C5" t="n" s="6">
         <v>0.09791666666666667</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" t="n" s="6">
         <v>0.0016851314043956833</v>
       </c>
       <c r="E5" t="n">
@@ -398,16 +425,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" t="s" s="5">
         <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>2.0</v>
       </c>
-      <c r="C6" t="n" s="3">
+      <c r="C6" t="n" s="6">
         <v>0.0020833333333333333</v>
       </c>
-      <c r="D6" t="n" s="3">
+      <c r="D6" t="n" s="6">
         <v>3.5913090321422155E-5</v>
       </c>
       <c r="E6" t="n">
